--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\.eslintrc.json</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\.eslintrc.json</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>147</v>
+        <v>560</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\.gitignore</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\.gitignore</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -486,36 +486,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>.prettierrc</t>
+          <t>package-lock.json</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\.prettierrc</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\package-lock.json</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>459</v>
+        <v>634.5927734375</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bytes</t>
+          <t>kilobytes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>package-lock.json</t>
+          <t>package.json</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\package-lock.json</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\package.json</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>664.9404296875</v>
+        <v>1.142578125</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -526,16 +526,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>package.json</t>
+          <t>README.md</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\package.json</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\README.md</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.6845703125</v>
+        <v>3.283203125</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -546,16 +546,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>README.md</t>
+          <t>README.old.md</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\README.md</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\README.old.md</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>907</v>
+        <v>20</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -566,36 +566,36 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tsconfig.json</t>
+          <t>yarn.lock</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\tsconfig.json</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\yarn.lock</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>546</v>
+        <v>503.767578125</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>bytes</t>
+          <t>kilobytes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>yarn.lock</t>
+          <t>favicon.ico</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\yarn.lock</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\build\favicon.ico</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>497.5439453125</v>
+        <v>3.779296875</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,56 +606,56 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>.gitignore</t>
+          <t>logo192.png</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\.husky\.gitignore</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\build\logo192.png</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5.2216796875</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>bytes</t>
+          <t>kilobytes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pre-commit</t>
+          <t>logo512.png</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\.husky\pre-commit</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\build\logo512.png</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>9.4375</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bytes</t>
+          <t>kilobytes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pre-push</t>
+          <t>manifest.json</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\.husky\pre-push</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\build\manifest.json</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>54</v>
+        <v>492</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -666,16 +666,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>husky.sh</t>
+          <t>robots.txt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\.husky\_\husky.sh</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\build\robots.txt</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>592</v>
+        <v>67</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\public\favicon.ico</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\public\favicon.ico</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\public\index.html</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\public\index.html</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\public\logo192.png</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\public\logo192.png</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -751,7 +751,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\public\logo512.png</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\public\logo512.png</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\public\manifest.json</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\public\manifest.json</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -791,7 +791,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\public\robots.txt</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\public\robots.txt</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -806,16 +806,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>App.test.tsx</t>
+          <t>App.css</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\App.test.tsx</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\App.css</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>296</v>
+        <v>564</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -826,16 +826,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>App.tsx</t>
+          <t>App.js</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\App.tsx</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\App.js</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -846,16 +846,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>index.tsx</t>
+          <t>App.test.js</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\index.tsx</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\App.test.js</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>524</v>
+        <v>246</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -866,16 +866,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>react-app-env.d.ts</t>
+          <t>index.css</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\react-app-env.d.ts</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\index.css</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -886,16 +886,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reportWebVitals.ts</t>
+          <t>index.js</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\reportWebVitals.ts</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\index.js</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -906,56 +906,56 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>setupTests.ts</t>
+          <t>logo.svg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\setupTests.ts</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\logo.svg</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>241</v>
+        <v>2.5703125</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>bytes</t>
+          <t>kilobytes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Routes.tsx</t>
+          <t>reportWebVitals.js</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\routes\Routes.tsx</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\reportWebVitals.js</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.36328125</v>
+        <v>362</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>kilobytes</t>
+          <t>bytes</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>colours.less</t>
+          <t>setupTests.js</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\style\colours.less</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\setupTests.js</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -966,16 +966,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>index.less</t>
+          <t>Button.jsx</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\style\index.less</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\component\Button.jsx</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -986,18 +986,38 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>responsive.less</t>
+          <t>Header.jsx</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C:\Users\sorze\Desktop\fantastic-happiness\src\style\responsive.less</t>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\component\Header.jsx</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>bytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PageLeft.jsx</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C:\Users\sorze\Desktop\deletingunnmodules\src\component\PageLeft.jsx</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>159</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>bytes</t>
         </is>
